--- a/tut04/output_by_subject/CS544.xlsx
+++ b/tut04/output_by_subject/CS544.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,264 +424,84 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1801CS33</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS337CS544Department Elective - IV</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1801CS37</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS377CS544Department Elective - IV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2121CS10</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CREDIT</t>
+          <t>2121CS102CS544CREDIT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021CS30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AUDIT</t>
+          <t>2021CS303CS544AUDIT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1801CS35</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS357CS544Department Elective - IV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1801CS36</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS367CS544Department Elective - IV</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021CS31</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CREDIT</t>
+          <t>2021CS313CS544CREDIT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021CS13</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CREDIT</t>
+          <t>2021CS133CS544CREDIT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1801CS39</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS397CS544Department Elective - IV</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1801CS06</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS067CS544Department Elective - IV</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1801CS59</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CS544</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS597CS544Department Elective - IV</t>
         </is>
       </c>
     </row>
